--- a/timetabling_GA/results/HK2_CT01/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK2_CT01/TKB_Semester_Schedule.xlsx
@@ -552,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,99 +687,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -788,38 +788,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -834,60 +841,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -896,7 +874,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -908,7 +886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,99 +1021,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -1144,38 +1122,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -1190,60 +1175,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1252,7 +1208,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1264,7 +1220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1399,99 +1355,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -1500,38 +1456,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -1546,60 +1509,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1608,7 +1542,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1620,7 +1554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1755,99 +1689,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -1856,38 +1790,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -1902,60 +1843,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1964,7 +1876,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1976,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2111,99 +2023,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -2212,38 +2124,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -2258,60 +2177,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2320,7 +2210,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2332,7 +2222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,99 +2357,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -2568,38 +2458,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -2614,60 +2511,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2676,7 +2544,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2688,7 +2556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2823,99 +2691,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -2924,38 +2792,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -2970,60 +2845,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3032,7 +2878,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3044,7 +2890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3179,99 +3025,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -3280,38 +3126,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -3326,60 +3179,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3388,7 +3212,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3400,7 +3224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3535,99 +3359,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -3636,38 +3460,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -3682,60 +3513,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3744,7 +3546,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3756,7 +3558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3891,99 +3693,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -3992,38 +3794,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -4038,60 +3847,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4100,7 +3880,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4112,7 +3892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4247,99 +4027,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -4348,38 +4128,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -4394,60 +4181,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4456,7 +4214,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4468,7 +4226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4603,99 +4361,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -4704,38 +4462,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -4750,60 +4515,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4812,7 +4548,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4824,7 +4560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4959,99 +4695,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -5060,38 +4796,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -5106,60 +4849,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5168,7 +4882,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5180,7 +4894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5315,99 +5029,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -5416,38 +5130,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -5462,60 +5183,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5524,7 +5216,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5536,7 +5228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5671,99 +5363,99 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -5772,38 +5464,45 @@
       <c r="C12" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E12" s="8" t="inlineStr"/>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>Cấu trúc dữ liệu
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R101
 GV: Lê Văn C</t>
@@ -5818,60 +5517,31 @@
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5880,7 +5550,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/timetabling_GA/results/HK2_CT01/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK2_CT01/TKB_Semester_Schedule.xlsx
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -183,10 +183,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -552,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,87 +688,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -776,105 +765,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -886,7 +1089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,87 +1224,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -1110,105 +1301,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1220,7 +1625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,87 +1760,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -1444,105 +1837,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1554,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,87 +2296,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -1778,105 +2373,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1888,7 +2697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2023,87 +2832,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -2112,105 +2909,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2222,7 +3233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2357,87 +3368,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -2446,105 +3445,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2556,7 +3769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2691,87 +3904,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -2780,105 +3981,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2890,7 +4305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3025,87 +4440,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -3114,105 +4517,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3224,7 +4841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3359,87 +4976,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -3448,105 +5053,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3558,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3693,87 +5512,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -3782,105 +5589,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3892,7 +5913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4027,87 +6048,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -4116,105 +6125,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4226,7 +6449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4361,87 +6584,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -4450,105 +6661,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4560,7 +6985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4695,87 +7120,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -4784,105 +7197,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4894,7 +7521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5029,87 +7656,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -5118,105 +7733,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5228,7 +8057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5363,87 +8192,75 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
@@ -5452,105 +8269,319 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Thực hành)
 Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/timetabling_GA/results/HK2_CT01/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK2_CT01/TKB_Semester_Schedule.xlsx
@@ -183,11 +183,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -703,9 +703,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -718,7 +718,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -726,11 +726,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -739,50 +739,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -792,10 +792,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -803,23 +803,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -831,59 +824,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -894,17 +880,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -924,48 +910,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -974,13 +955,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -989,10 +977,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -1001,9 +994,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -1013,15 +1006,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -1030,22 +1018,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -1056,28 +1049,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1089,7 +1106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,7 +1247,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -1239,9 +1256,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -1254,7 +1271,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -1262,11 +1279,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -1275,50 +1292,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -1328,10 +1345,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -1339,23 +1356,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -1367,59 +1377,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -1430,17 +1433,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -1460,48 +1463,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -1510,13 +1508,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -1525,10 +1530,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -1537,9 +1547,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -1549,15 +1559,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -1566,22 +1571,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -1592,28 +1602,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1625,7 +1659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1766,7 +1800,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -1775,9 +1809,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -1790,7 +1824,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -1798,11 +1832,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -1811,50 +1845,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -1864,10 +1898,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -1875,23 +1909,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -1903,59 +1930,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -1966,17 +1986,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -1996,48 +2016,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -2046,13 +2061,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -2061,10 +2083,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -2073,9 +2100,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -2085,15 +2112,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -2102,22 +2124,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -2128,28 +2155,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2161,7 +2212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2302,7 +2353,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -2311,9 +2362,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -2326,7 +2377,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -2334,11 +2385,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -2347,50 +2398,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -2400,10 +2451,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -2411,23 +2462,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -2439,59 +2483,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -2502,17 +2539,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -2532,48 +2569,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -2582,13 +2614,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -2597,10 +2636,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -2609,9 +2653,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -2621,15 +2665,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -2638,22 +2677,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -2664,28 +2708,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2697,7 +2765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2838,7 +2906,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -2847,9 +2915,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -2862,7 +2930,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -2870,11 +2938,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -2883,50 +2951,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -2936,10 +3004,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -2947,23 +3015,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -2975,59 +3036,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -3038,17 +3092,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -3068,48 +3122,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -3118,13 +3167,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -3133,10 +3189,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -3145,9 +3206,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -3157,15 +3218,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -3174,22 +3230,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -3200,28 +3261,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3233,7 +3318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3374,7 +3459,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -3383,9 +3468,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -3398,7 +3483,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -3406,11 +3491,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -3419,50 +3504,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -3472,10 +3557,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -3483,23 +3568,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -3511,59 +3589,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -3574,17 +3645,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -3604,48 +3675,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -3654,13 +3720,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -3669,10 +3742,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -3681,9 +3759,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -3693,15 +3771,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -3710,22 +3783,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -3736,28 +3814,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3769,7 +3871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3910,7 +4012,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -3919,9 +4021,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -3934,7 +4036,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -3942,11 +4044,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -3955,50 +4057,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -4008,10 +4110,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -4019,23 +4121,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -4047,59 +4142,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -4110,17 +4198,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -4140,48 +4228,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -4190,13 +4273,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -4205,10 +4295,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -4217,9 +4312,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -4229,15 +4324,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -4246,22 +4336,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -4272,28 +4367,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4305,7 +4424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4446,7 +4565,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -4455,9 +4574,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -4470,7 +4589,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -4478,11 +4597,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -4491,50 +4610,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -4544,10 +4663,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -4555,23 +4674,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -4583,59 +4695,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -4646,17 +4751,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -4676,48 +4781,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -4726,13 +4826,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -4741,10 +4848,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -4753,9 +4865,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -4765,15 +4877,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -4782,22 +4889,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -4808,28 +4920,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4841,7 +4977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,7 +5118,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -4991,9 +5127,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -5006,7 +5142,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -5014,11 +5150,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -5027,50 +5163,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -5080,10 +5216,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -5091,23 +5227,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -5119,59 +5248,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -5182,17 +5304,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -5212,48 +5334,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -5262,13 +5379,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -5277,10 +5401,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -5289,9 +5418,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -5301,15 +5430,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -5318,22 +5442,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -5344,28 +5473,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5377,7 +5530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5518,7 +5671,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -5527,9 +5680,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -5542,7 +5695,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -5550,11 +5703,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -5563,50 +5716,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -5616,10 +5769,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -5627,23 +5780,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -5655,59 +5801,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -5718,17 +5857,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -5748,48 +5887,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -5798,13 +5932,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -5813,10 +5954,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -5825,9 +5971,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -5837,15 +5983,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -5854,22 +5995,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -5880,28 +6026,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5913,7 +6083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6054,7 +6224,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -6063,9 +6233,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -6078,7 +6248,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -6086,11 +6256,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -6099,50 +6269,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -6152,10 +6322,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -6163,23 +6333,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -6191,59 +6354,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -6254,17 +6410,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -6284,48 +6440,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -6334,13 +6485,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -6349,10 +6507,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -6361,9 +6524,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -6373,15 +6536,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -6390,22 +6548,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -6416,28 +6579,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6449,7 +6636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6590,7 +6777,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -6599,9 +6786,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -6614,7 +6801,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -6622,11 +6809,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -6635,50 +6822,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -6688,10 +6875,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -6699,23 +6886,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -6727,59 +6907,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -6790,17 +6963,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -6820,48 +6993,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -6870,13 +7038,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -6885,10 +7060,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -6897,9 +7077,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -6909,15 +7089,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -6926,22 +7101,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -6952,28 +7132,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6985,7 +7189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7126,7 +7330,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -7135,9 +7339,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -7150,7 +7354,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -7158,11 +7362,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -7171,50 +7375,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -7224,10 +7428,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -7235,23 +7439,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -7263,59 +7460,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -7326,17 +7516,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -7356,48 +7546,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -7406,13 +7591,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -7421,10 +7613,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -7433,9 +7630,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -7445,15 +7642,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -7462,22 +7654,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -7488,28 +7685,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7521,7 +7742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7662,7 +7883,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -7671,9 +7892,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -7686,7 +7907,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -7694,11 +7915,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -7707,50 +7928,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -7760,10 +7981,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -7771,23 +7992,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -7799,59 +8013,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -7862,17 +8069,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -7892,48 +8099,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -7942,13 +8144,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -7957,10 +8166,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -7969,9 +8183,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -7981,15 +8195,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -7998,22 +8207,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -8024,28 +8238,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8057,7 +8295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8198,7 +8436,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
@@ -8207,9 +8445,9 @@
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB03
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB02
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -8222,7 +8460,7 @@
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
@@ -8230,11 +8468,11 @@
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R102
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -8243,50 +8481,50 @@
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -8296,10 +8534,10 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -8307,23 +8545,16 @@
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -8335,59 +8566,52 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr"/>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="11" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <t>CL07</t>
@@ -8398,17 +8622,17 @@
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
@@ -8428,48 +8652,43 @@
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
       <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <t>CL06</t>
@@ -8478,13 +8697,20 @@
       <c r="C19" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="inlineStr"/>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="12" t="inlineStr">
-        <is>
-          <t>Thuật toán
-(Lý thuyết)
-Phòng: R104
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Thuật toán
+(Thực hành)
+Phòng: LAB01
 GV: Lê Văn C</t>
         </is>
       </c>
@@ -8493,10 +8719,15 @@
       <c r="I19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
@@ -8505,9 +8736,9 @@
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Thuật toán
 (Lý thuyết)
 Phòng: R104
 GV: Lê Văn C</t>
@@ -8517,15 +8748,10 @@
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
@@ -8534,22 +8760,27 @@
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
       <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="G21" s="8" t="inlineStr"/>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
@@ -8560,28 +8791,52 @@
       <c r="F22" s="8" t="inlineStr"/>
       <c r="G22" s="8" t="inlineStr"/>
       <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>Cấu trúc dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr">
+        <is>
+          <t>Cấu trúc dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
